--- a/Original_Excel_Files/S.xlsx
+++ b/Original_Excel_Files/S.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E1B72-F3A7-40E5-86FA-B6C7E36804EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C146643-006E-4CC1-9DC9-F66C7263D462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,26 +17,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>SB455 .P58 1991</t>
   </si>
   <si>
-    <t>Pollan</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
     <t>Second Nature: a gardener's education</t>
   </si>
   <si>
     <t>S494.5 .S86 F37 1989</t>
   </si>
   <si>
-    <t>Iowa Citizens for Community Improvement</t>
-  </si>
-  <si>
     <t>1989 O</t>
   </si>
   <si>
@@ -46,18 +37,6 @@
     <t>S495 .C54</t>
   </si>
   <si>
-    <t>Chrispeels</t>
-  </si>
-  <si>
-    <t>Maarten J.</t>
-  </si>
-  <si>
-    <t>Sadava</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
     <t>1977 P</t>
   </si>
   <si>
@@ -67,12 +46,6 @@
     <t>S589.75 .B76 1996</t>
   </si>
   <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Lester R.</t>
-  </si>
-  <si>
     <t>1996 P</t>
   </si>
   <si>
@@ -82,9 +55,6 @@
     <t>S623 .B75 1984</t>
   </si>
   <si>
-    <t>Brown, Lester Russell</t>
-  </si>
-  <si>
     <t>1984 P</t>
   </si>
   <si>
@@ -94,12 +64,6 @@
     <t>S623 .M68</t>
   </si>
   <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>R.P.C.</t>
-  </si>
-  <si>
     <t>1979 P</t>
   </si>
   <si>
@@ -109,9 +73,6 @@
     <t>S920 .C64 1998</t>
   </si>
   <si>
-    <t>National Wildlife Federation</t>
-  </si>
-  <si>
     <t>1998 O</t>
   </si>
   <si>
@@ -121,12 +82,6 @@
     <t>SD381 .C75 1954</t>
   </si>
   <si>
-    <t>Collis</t>
-  </si>
-  <si>
-    <t>John S.</t>
-  </si>
-  <si>
     <t>1954 P</t>
   </si>
   <si>
@@ -136,9 +91,6 @@
     <t>SD409 .P82 1988</t>
   </si>
   <si>
-    <t>Postel, Sandra</t>
-  </si>
-  <si>
     <t>1988 P</t>
   </si>
   <si>
@@ -148,18 +100,6 @@
     <t>SD418.3 .A53 H43 1990</t>
   </si>
   <si>
-    <t>Hecht</t>
-  </si>
-  <si>
-    <t>Susanna</t>
-  </si>
-  <si>
-    <t>Cockburn</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
     <t>1990 P</t>
   </si>
   <si>
@@ -169,12 +109,6 @@
     <t>SA6639.65</t>
   </si>
   <si>
-    <t>Silvert</t>
-  </si>
-  <si>
-    <t>K.H.</t>
-  </si>
-  <si>
     <t>1965 P</t>
   </si>
   <si>
@@ -184,76 +118,55 @@
     <t>S441 .B472 2009</t>
   </si>
   <si>
-    <t>Berry, Wendell</t>
-  </si>
-  <si>
     <t>Bringing it to the Table</t>
   </si>
   <si>
-    <t>Brown, Lester R. and Wolf, Edward C.</t>
-  </si>
-  <si>
     <t>Soil Erosion: Quiet Crisis In the World Economy</t>
   </si>
   <si>
     <t>SB117 .S432 1996</t>
   </si>
   <si>
-    <t>Whealy, Kent</t>
-  </si>
-  <si>
     <t>Seed Savers 1996 Summer Edition</t>
   </si>
   <si>
     <t>SB117 .S433 2001</t>
   </si>
   <si>
-    <t>Adelmann, Arllys</t>
-  </si>
-  <si>
     <t>Seed Savers 2001 Harvest Edition</t>
   </si>
   <si>
     <t>SD247 .M94 1984</t>
   </si>
   <si>
-    <t>Myers, Norman</t>
-  </si>
-  <si>
     <t>The Primary Source</t>
   </si>
   <si>
-    <t>Postel, Sandra and Heise, Lori</t>
-  </si>
-  <si>
     <t>Reforesting the Earth</t>
   </si>
   <si>
     <t>SK367 .D75 2005</t>
   </si>
   <si>
-    <t>United states department of the interior</t>
-  </si>
-  <si>
     <t>Summary draft environmental impact statement for driftless area</t>
   </si>
   <si>
     <t>S521.5 .M2 N42</t>
   </si>
   <si>
-    <t>Nearing</t>
-  </si>
-  <si>
-    <t>Helen</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
     <t>1979 H</t>
   </si>
   <si>
     <t>Continuing the Good Life: Half a Century of Homesteading</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -322,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -335,14 +248,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,440 +601,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:I58"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="69.85546875" style="8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="9">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9">
         <v>2009</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1984</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1996</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1991</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1991</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1984</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1984</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1988</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
+      <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1996</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="9">
-        <v>2001</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1991</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1991</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1984</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1988</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B23" s="9">
+        <v>2005</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="9">
-        <v>2005</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I58">
-    <sortCondition ref="A1:A58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
+    <sortCondition ref="A1:A53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
